--- a/Diccionario.xlsx
+++ b/Diccionario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6QV46LA\Documents\BDIntegradora1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C7519D-994B-4D23-A8E4-8839349FF3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3F3BA4-B8CD-4567-859F-7C1EBB929337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D0490991-C3C4-43D2-AA0F-8BB6BF21F567}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$4:$K$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$2:$K$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="181">
   <si>
     <t>DICCIONARIO DE DATOS</t>
   </si>
@@ -46,9 +46,6 @@
     <t xml:space="preserve">Tabla: </t>
   </si>
   <si>
-    <t>nombre de la tabla</t>
-  </si>
-  <si>
     <t>Campo</t>
   </si>
   <si>
@@ -76,32 +73,541 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>IDPersona</t>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>identificador de persona</t>
-  </si>
-  <si>
-    <t>IDTipoPersona</t>
-  </si>
-  <si>
     <t>Tabla Tipo Persona, campo IDTipoPersona</t>
   </si>
   <si>
-    <t>Nombre: Mercansías</t>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>idCte</t>
+  </si>
+  <si>
+    <t>identificador de cliente</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>nombre del cliente</t>
+  </si>
+  <si>
+    <t>paterno</t>
+  </si>
+  <si>
+    <t>apellido paterno del cliente</t>
+  </si>
+  <si>
+    <t>materno</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>apellido materno del cliente</t>
+  </si>
+  <si>
+    <t>fechaNac</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fecha de nacimiento del cliente</t>
+  </si>
+  <si>
+    <t>estadoCivil</t>
+  </si>
+  <si>
+    <t>estado civil del cliente</t>
+  </si>
+  <si>
+    <t>RFC</t>
+  </si>
+  <si>
+    <t>rfc del cliente</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>idDir</t>
+  </si>
+  <si>
+    <t>identificador de la dirección</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> calle</t>
+  </si>
+  <si>
+    <t>colonia</t>
+  </si>
+  <si>
+    <t>municipio</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>nEnt</t>
+  </si>
+  <si>
+    <t>nInt</t>
+  </si>
+  <si>
+    <t>calle de la dirección</t>
+  </si>
+  <si>
+    <t>colonia de la dirección</t>
+  </si>
+  <si>
+    <t>municipio de la dirección</t>
+  </si>
+  <si>
+    <t>estado de la dirección</t>
+  </si>
+  <si>
+    <t>nEnt de la dirección</t>
+  </si>
+  <si>
+    <t>nInt de la dirección</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mercansías</t>
+    </r>
+  </si>
+  <si>
+    <t>RelDirCte</t>
+  </si>
+  <si>
+    <t>idRelDirCte</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>identificador del cliente</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>Tabla Direccion, campo idDir</t>
+  </si>
+  <si>
+    <t>Tabla Cliente, campo idCte</t>
+  </si>
+  <si>
+    <t>identificador de la relacion entre el cliente y su direccion</t>
+  </si>
+  <si>
+    <t>identificador de la direccion</t>
+  </si>
+  <si>
+    <t>descripcion de la relacion</t>
+  </si>
+  <si>
+    <t>ContactoCte</t>
+  </si>
+  <si>
+    <t>idCtoCte</t>
+  </si>
+  <si>
+    <t>identificador de la relacion entre el cliente y su contacto</t>
+  </si>
+  <si>
+    <t>idTipoCto</t>
+  </si>
+  <si>
+    <t>Tabla TipoContacto, campo idTipoCto</t>
+  </si>
+  <si>
+    <t>identificador del tipo de contacto</t>
+  </si>
+  <si>
+    <t>descripcion del contacto</t>
+  </si>
+  <si>
+    <t>TipoContacto</t>
+  </si>
+  <si>
+    <t>tipoCto</t>
+  </si>
+  <si>
+    <t>tipo de contacto</t>
+  </si>
+  <si>
+    <t>Promocion</t>
+  </si>
+  <si>
+    <t>codigoPromo</t>
+  </si>
+  <si>
+    <t>codigo de la promocion</t>
+  </si>
+  <si>
+    <t>descProm</t>
+  </si>
+  <si>
+    <t>descripcion de la promocion</t>
+  </si>
+  <si>
+    <t>RelPromoCte</t>
+  </si>
+  <si>
+    <t>idRelPromoCte</t>
+  </si>
+  <si>
+    <t>identificador de la relacion entre lso clientes y la promoción</t>
+  </si>
+  <si>
+    <t>idCteEmisor</t>
+  </si>
+  <si>
+    <t>idCteReceptor</t>
+  </si>
+  <si>
+    <t>Tabla Promocion, campo codigoPromo</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>idPedido</t>
+  </si>
+  <si>
+    <t>identificador del pedido</t>
+  </si>
+  <si>
+    <t>idRepartidor</t>
+  </si>
+  <si>
+    <t>Tabla Repartidor, campo idRepartidor</t>
+  </si>
+  <si>
+    <t>identificador del repartidor</t>
+  </si>
+  <si>
+    <t>costoTotal</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>conRepartidor</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>costo total del pedido</t>
+  </si>
+  <si>
+    <t>saber si ya está con el repartidor</t>
+  </si>
+  <si>
+    <t>tiempoEntrega</t>
+  </si>
+  <si>
+    <t>tiempo de entrega del pedido</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>idProducto</t>
+  </si>
+  <si>
+    <t>identificador del producto</t>
+  </si>
+  <si>
+    <t>idProveedor</t>
+  </si>
+  <si>
+    <t>idCategoria</t>
+  </si>
+  <si>
+    <t>costoUnitario</t>
+  </si>
+  <si>
+    <t>marcha</t>
+  </si>
+  <si>
+    <t>demanda</t>
+  </si>
+  <si>
+    <t>identidicador del proveedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identificador de la categoria </t>
+  </si>
+  <si>
+    <t>nombre del producto</t>
+  </si>
+  <si>
+    <t>descripcion del producto</t>
+  </si>
+  <si>
+    <t>costo unitario del producto</t>
+  </si>
+  <si>
+    <t>marca del producto</t>
+  </si>
+  <si>
+    <t>demanda del producto</t>
+  </si>
+  <si>
+    <t>RelCtePedido</t>
+  </si>
+  <si>
+    <t>idRelCtePedido</t>
+  </si>
+  <si>
+    <t>identificador de la relacion entre cliente-pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idCte </t>
+  </si>
+  <si>
+    <t>concepto</t>
+  </si>
+  <si>
+    <t>reseniaPedido</t>
+  </si>
+  <si>
+    <t>Tabla Pedido, campo idPedido</t>
+  </si>
+  <si>
+    <t>concepto del pedido</t>
+  </si>
+  <si>
+    <t>identificador del cliente emisor</t>
+  </si>
+  <si>
+    <t>identificador del cliente receptor</t>
+  </si>
+  <si>
+    <t>resenia del pedido</t>
+  </si>
+  <si>
+    <t>RelPedProd</t>
+  </si>
+  <si>
+    <t>idRelPedProd</t>
+  </si>
+  <si>
+    <t>identificador de la relacion entre pedido-pedido</t>
+  </si>
+  <si>
+    <t>Tabla Producto, campo idProducto</t>
+  </si>
+  <si>
+    <t>reseniaEntrega</t>
+  </si>
+  <si>
+    <t>reseniaCalidad</t>
+  </si>
+  <si>
+    <t>resenia de la entrega</t>
+  </si>
+  <si>
+    <t>resenia de calidad</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>idProv</t>
+  </si>
+  <si>
+    <t>identificador del proveedor</t>
+  </si>
+  <si>
+    <t>rfc del proveedor</t>
+  </si>
+  <si>
+    <t>nombre del proveedor</t>
+  </si>
+  <si>
+    <t>apellido paterno del proveedor</t>
+  </si>
+  <si>
+    <t>apellido materno del proveedor</t>
+  </si>
+  <si>
+    <t>RelPedProv</t>
+  </si>
+  <si>
+    <t>idRelPedProv</t>
+  </si>
+  <si>
+    <t>cantidadExistente</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>identificador de categoria</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>nombre de la categoria</t>
+  </si>
+  <si>
+    <t>imagen de la categoria</t>
+  </si>
+  <si>
+    <t>Tarjetas</t>
+  </si>
+  <si>
+    <t>idTarjeta</t>
+  </si>
+  <si>
+    <t>numTarjeta</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>identificador de tarjeta</t>
+  </si>
+  <si>
+    <t>numero de trajeta</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>cvv de la tarjeta</t>
+  </si>
+  <si>
+    <t>Repartidor</t>
+  </si>
+  <si>
+    <t>rfc</t>
+  </si>
+  <si>
+    <t>zonaActual</t>
+  </si>
+  <si>
+    <t>fechaZona</t>
+  </si>
+  <si>
+    <t>rfc del repartidor</t>
+  </si>
+  <si>
+    <t>nombre del repartidor</t>
+  </si>
+  <si>
+    <t>paterno del repartidor</t>
+  </si>
+  <si>
+    <t>materno del repartidor</t>
+  </si>
+  <si>
+    <t>fecha de nacimiento del repartidor</t>
+  </si>
+  <si>
+    <t>estado civil del repartidor</t>
+  </si>
+  <si>
+    <t>zona actual del repartidor</t>
+  </si>
+  <si>
+    <t>fecha de zona del repartidor</t>
+  </si>
+  <si>
+    <t>fecha de expiracion de la tarjeta</t>
+  </si>
+  <si>
+    <t>RelCatProv</t>
+  </si>
+  <si>
+    <t>idRelCatProv</t>
+  </si>
+  <si>
+    <t>proceso</t>
+  </si>
+  <si>
+    <t>Tabla Proveedor, campo idProv</t>
+  </si>
+  <si>
+    <t>Tabla Categoria, campo idCategoria</t>
+  </si>
+  <si>
+    <t>identificador de la relacion entre proveedor y categoria</t>
+  </si>
+  <si>
+    <t>RelDirProv</t>
+  </si>
+  <si>
+    <t>idRelDirProv</t>
+  </si>
+  <si>
+    <t>Tabla Proveedor, campo idProveedor</t>
+  </si>
+  <si>
+    <t>identificador de la relacion entre proveedor y direccion</t>
+  </si>
+  <si>
+    <t>ContactoProv</t>
+  </si>
+  <si>
+    <t>idCtoProv</t>
+  </si>
+  <si>
+    <t>RelCteTarjeta</t>
+  </si>
+  <si>
+    <t>idRelCteTar</t>
+  </si>
+  <si>
+    <t>identificador de la relacion entre cliente y tarjeta</t>
+  </si>
+  <si>
+    <t>identificador de la tarjeta</t>
+  </si>
+  <si>
+    <t>Tabla Tarjetas, campo idTarjeta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +646,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,7 +662,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -172,11 +685,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -191,7 +726,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82525CD6-8768-4335-8160-0EF69A79BBD3}">
-  <dimension ref="B4:K24"/>
+  <dimension ref="B2:U148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,211 +1075,2986 @@
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="M8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="10" spans="2:21" ht="36" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="M10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="2:21" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E7" s="8"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="12" spans="2:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="5">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="2:21" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="M13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="2:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="N13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="2:21" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="5">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="M14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="8">
+        <v>50</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="8"/>
+    </row>
+    <row r="15" spans="2:21" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+    </row>
+    <row r="16" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5">
+        <v>50</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="M16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8">
+        <v>13</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="2:21" ht="36" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="M18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="M19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="2:21" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="M20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="2:21" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="M21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="M22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="5">
+        <v>50</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="2:21" ht="36" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="36" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="M27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="5">
+        <v>100</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="M28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="2:21" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="5">
+        <v>60</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="M29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="2:21" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="5">
+        <v>60</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="M30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="U30" s="5"/>
+    </row>
+    <row r="31" spans="2:21" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="5">
+        <v>60</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="M31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="M34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="2:21" ht="36" x14ac:dyDescent="0.25">
+      <c r="M36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="M37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="2:21" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="M38" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U38" s="5"/>
+    </row>
+    <row r="39" spans="2:21" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U39" s="5"/>
+    </row>
+    <row r="40" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="M40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" s="5">
+        <v>30</v>
+      </c>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="U40" s="5"/>
+    </row>
+    <row r="41" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="8">
+        <v>50</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="M41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="2:21" ht="36" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="M46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="M47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="U47" s="5"/>
+    </row>
+    <row r="48" spans="2:21" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="2:21" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="M49" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U49" s="5"/>
+    </row>
+    <row r="50" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="8">
+        <v>100</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="8"/>
+      <c r="M50" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="U50" s="5"/>
+    </row>
+    <row r="51" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="M51" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="U51" s="5"/>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="M55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="2:21" ht="36" x14ac:dyDescent="0.25">
+      <c r="M57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="U58" s="5"/>
+    </row>
+    <row r="59" spans="2:21" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J59" s="5"/>
+      <c r="M59" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="T59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U59" s="5"/>
+    </row>
+    <row r="60" spans="2:21" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J60" s="5"/>
+      <c r="M60" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="T60" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U60" s="5"/>
+    </row>
+    <row r="61" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="M61" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="U61" s="8"/>
+    </row>
+    <row r="62" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+    </row>
+    <row r="63" spans="2:21" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="8">
+        <v>6</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="M64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+    </row>
+    <row r="66" spans="2:21" ht="36" x14ac:dyDescent="0.25">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="M66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="M67" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="U67" s="5"/>
+    </row>
+    <row r="68" spans="2:21" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="M68" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="T68" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="U68" s="5"/>
+    </row>
+    <row r="69" spans="2:21" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="M69" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T69" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="U69" s="5"/>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="M70" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="U70" s="5"/>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="M73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O73" s="2"/>
+    </row>
+    <row r="75" spans="2:21" ht="36" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J76" s="5"/>
+      <c r="M76" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="U76" s="5"/>
+    </row>
+    <row r="77" spans="2:21" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J77" s="5"/>
+      <c r="M77" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T77" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U77" s="5"/>
+    </row>
+    <row r="78" spans="2:21" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J78" s="5"/>
+      <c r="M78" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="T78" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="U78" s="5"/>
+    </row>
+    <row r="79" spans="2:21" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="5">
+        <v>60</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J79" s="5"/>
+      <c r="M79" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O79" s="5">
+        <v>50</v>
+      </c>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U79" s="5"/>
+    </row>
+    <row r="80" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="5">
+        <v>100</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="5">
+        <v>30</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J82" s="5"/>
+      <c r="M82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J83" s="8"/>
+    </row>
+    <row r="84" spans="2:21" ht="36" x14ac:dyDescent="0.25">
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="M84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U84" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="M85" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="U85" s="5"/>
+    </row>
+    <row r="86" spans="2:21" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="M86" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T86" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U86" s="5"/>
+    </row>
+    <row r="87" spans="2:21" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="M87" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="T87" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="U87" s="5"/>
+    </row>
+    <row r="88" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="M88" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O88" s="5">
+        <v>50</v>
+      </c>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U88" s="5"/>
+    </row>
+    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="92" spans="2:21" ht="36" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O92" s="2"/>
+    </row>
+    <row r="93" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:21" ht="36" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="5">
+        <v>13</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J94" s="5"/>
+      <c r="M94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="2:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="5">
+        <v>50</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J95" s="5"/>
+      <c r="M95" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="U95" s="5"/>
+    </row>
+    <row r="96" spans="2:21" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="5">
+        <v>50</v>
+      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J96" s="5"/>
+      <c r="M96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T96" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U96" s="5"/>
+    </row>
+    <row r="97" spans="2:21" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="8">
+        <v>50</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J97" s="8"/>
+      <c r="M97" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="T97" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="U97" s="8"/>
+    </row>
+    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="10"/>
+    </row>
+    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+    </row>
+    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+    </row>
+    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+    </row>
+    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+    </row>
+    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+    </row>
+    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="109" spans="2:21" ht="36" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="5">
+        <v>50</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="2:21" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B112" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="8">
+        <v>255</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J112" s="8"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="120" spans="2:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="2:10" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D134" s="2"/>
+    </row>
+    <row r="136" spans="2:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="5">
+        <v>13</v>
+      </c>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B139" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="5">
+        <v>50</v>
+      </c>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J139" s="5"/>
+    </row>
+    <row r="140" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B140" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="5">
+        <v>50</v>
+      </c>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B141" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="6">
+        <v>50</v>
+      </c>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="2:10" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="B142" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B143" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="7">
+        <v>20</v>
+      </c>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J143" s="7"/>
+    </row>
+    <row r="144" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B144" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J144" s="7"/>
+    </row>
+    <row r="145" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B145" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J145" s="15"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
+      <c r="J146" s="16"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
